--- a/Employee_Reports35/Mabin Pauly Q0583.xlsx
+++ b/Employee_Reports35/Mabin Pauly Q0583.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -854,11 +854,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -903,11 +903,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
@@ -1001,11 +1001,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1050,11 +1050,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1087,11 +1087,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1124,11 +1124,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">

--- a/Employee_Reports35/Mabin Pauly Q0583.xlsx
+++ b/Employee_Reports35/Mabin Pauly Q0583.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -854,11 +854,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -903,11 +903,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
@@ -1001,11 +1001,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1050,11 +1050,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1087,11 +1087,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1124,11 +1124,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
